--- a/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_1_8.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_1_8.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_24</t>
+          <t>model_1_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9681326246770418</v>
+        <v>0.9835144447384616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9581556809266185</v>
+        <v>0.9831426913416406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8727914869843729</v>
+        <v>0.9964837803326917</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9156048426966149</v>
+        <v>0.9906393015909399</v>
       </c>
       <c r="F2" t="n">
-        <v>3.843214951841932</v>
+        <v>1.98816287279599</v>
       </c>
       <c r="G2" t="n">
-        <v>3.628428692528893</v>
+        <v>0.9449729881512847</v>
       </c>
       <c r="H2" t="n">
-        <v>22.8023893305565</v>
+        <v>0.221428842062661</v>
       </c>
       <c r="I2" t="n">
-        <v>12.65146986095886</v>
+        <v>0.6044811801729448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_23</t>
+          <t>model_1_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9681693834367097</v>
+        <v>0.9861920806992862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9581298794862553</v>
+        <v>0.9837610579032268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8730023517884069</v>
+        <v>0.993607526522157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9157156021580761</v>
+        <v>0.9896035472651509</v>
       </c>
       <c r="F3" t="n">
-        <v>3.838781834481774</v>
+        <v>1.665239178706346</v>
       </c>
       <c r="G3" t="n">
-        <v>3.630666001884039</v>
+        <v>0.9103091097518566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.76459137785892</v>
+        <v>0.4025567609655702</v>
       </c>
       <c r="I3" t="n">
-        <v>12.63486618329219</v>
+        <v>0.6713665737474522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_22</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9682094909431268</v>
+        <v>0.988246992434232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9581003063573084</v>
+        <v>0.9841905484273437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8732366972289555</v>
+        <v>0.9898364786591878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9158383765793606</v>
+        <v>0.9880703637333854</v>
       </c>
       <c r="F4" t="n">
-        <v>3.833944857266629</v>
+        <v>1.417416211661757</v>
       </c>
       <c r="G4" t="n">
-        <v>3.633230364071665</v>
+        <v>0.8862330871682592</v>
       </c>
       <c r="H4" t="n">
-        <v>22.72258447245179</v>
+        <v>0.6400330396587453</v>
       </c>
       <c r="I4" t="n">
-        <v>12.61646137263472</v>
+        <v>0.7703742065332971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_21</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9682530823096629</v>
+        <v>0.9898082646033566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9580662696727451</v>
+        <v>0.9844689645616889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8734966906897225</v>
+        <v>0.985475974479419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.915974247576559</v>
+        <v>0.9861972358566303</v>
       </c>
       <c r="F5" t="n">
-        <v>3.828687725483889</v>
+        <v>1.229126323226811</v>
       </c>
       <c r="G5" t="n">
-        <v>3.636181772664338</v>
+        <v>0.8706258670743616</v>
       </c>
       <c r="H5" t="n">
-        <v>22.67598010631885</v>
+        <v>0.9146294763696339</v>
       </c>
       <c r="I5" t="n">
-        <v>12.59609328658619</v>
+        <v>0.891334256742784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_20</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9683003212797242</v>
+        <v>0.9909794727868443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9580266759804825</v>
+        <v>0.9846285357356932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8737853443504655</v>
+        <v>0.9807632736803805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9161245560630176</v>
+        <v>0.9841078875093551</v>
       </c>
       <c r="F6" t="n">
-        <v>3.822990691630012</v>
+        <v>1.087878267593672</v>
       </c>
       <c r="G6" t="n">
-        <v>3.639615043708776</v>
+        <v>0.8616807589211182</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6242383400021</v>
+        <v>1.211404985198328</v>
       </c>
       <c r="I6" t="n">
-        <v>12.57356091213442</v>
+        <v>1.026257069075994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_19</t>
+          <t>model_1_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9683512819343526</v>
+        <v>0.991843800343518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9579808383992694</v>
+        <v>0.9846962938565862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8741052503662261</v>
+        <v>0.9758801786853707</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9162906111515583</v>
+        <v>0.9818981376607989</v>
       </c>
       <c r="F7" t="n">
-        <v>3.816844821509282</v>
+        <v>0.9836401069220362</v>
       </c>
       <c r="G7" t="n">
-        <v>3.643589738447577</v>
+        <v>0.857882430536118</v>
       </c>
       <c r="H7" t="n">
-        <v>22.5668945243436</v>
+        <v>1.518910821787514</v>
       </c>
       <c r="I7" t="n">
-        <v>12.54866800340531</v>
+        <v>1.168954989462934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_0</t>
+          <t>model_1_8_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9684035542853234</v>
+        <v>0.992414361998941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9508386119111359</v>
+        <v>0.9826677854025788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8938203094327443</v>
+        <v>0.9169414997716347</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9251971767086619</v>
+        <v>0.9539185408834218</v>
       </c>
       <c r="F8" t="n">
-        <v>3.810540760419116</v>
+        <v>0.9148302014043631</v>
       </c>
       <c r="G8" t="n">
-        <v>4.262910594706145</v>
+        <v>0.9715948702927987</v>
       </c>
       <c r="H8" t="n">
-        <v>19.03292936861194</v>
+        <v>5.230488783172969</v>
       </c>
       <c r="I8" t="n">
-        <v>11.21350672981135</v>
+        <v>2.975779538407078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_18</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9684061292226708</v>
+        <v>0.9924678621361126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9579275305368364</v>
+        <v>0.9846946919713304</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8744606749563494</v>
+        <v>0.9709637392753373</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9164742402038148</v>
+        <v>0.9796412262047719</v>
       </c>
       <c r="F9" t="n">
-        <v>3.810230222208394</v>
+        <v>0.9083780689328351</v>
       </c>
       <c r="G9" t="n">
-        <v>3.648212200513462</v>
+        <v>0.8579722276874597</v>
       </c>
       <c r="H9" t="n">
-        <v>22.50318393069293</v>
+        <v>1.828516474630103</v>
       </c>
       <c r="I9" t="n">
-        <v>12.52114062512377</v>
+        <v>1.314698441593021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_17</t>
+          <t>model_1_8_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9684648252776334</v>
+        <v>0.99249752464824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9578654895259999</v>
+        <v>0.9827417899625712</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8748549337773975</v>
+        <v>0.9182812519616631</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9166770564275446</v>
+        <v>0.9545673880053641</v>
       </c>
       <c r="F10" t="n">
-        <v>3.803151460504278</v>
+        <v>0.9048007611388326</v>
       </c>
       <c r="G10" t="n">
-        <v>3.653591936372892</v>
+        <v>0.967446384220072</v>
       </c>
       <c r="H10" t="n">
-        <v>22.4325122207466</v>
+        <v>5.146119828967108</v>
       </c>
       <c r="I10" t="n">
-        <v>12.49073694529406</v>
+        <v>2.933879259508661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_16</t>
+          <t>model_1_8_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9685272564093749</v>
+        <v>0.9925860354408741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9577926401501036</v>
+        <v>0.982822479958409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8752921350149002</v>
+        <v>0.9197562937200137</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9169008389568356</v>
+        <v>0.9552813142152453</v>
       </c>
       <c r="F11" t="n">
-        <v>3.795622247428611</v>
+        <v>0.8941263331947911</v>
       </c>
       <c r="G11" t="n">
-        <v>3.659908893407652</v>
+        <v>0.9629231315451625</v>
       </c>
       <c r="H11" t="n">
-        <v>22.35414299374279</v>
+        <v>5.053231210095444</v>
       </c>
       <c r="I11" t="n">
-        <v>12.45719025831347</v>
+        <v>2.887776400614325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_15</t>
+          <t>model_1_8_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9685932384635705</v>
+        <v>0.9926796641800427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9577072506457389</v>
+        <v>0.982910328232657</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8757774708347746</v>
+        <v>0.9213792753619734</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9171477171151107</v>
+        <v>0.9560664863804997</v>
       </c>
       <c r="F12" t="n">
-        <v>3.787664792047736</v>
+        <v>0.8828346793749129</v>
       </c>
       <c r="G12" t="n">
-        <v>3.667313237283674</v>
+        <v>0.957998606052838</v>
       </c>
       <c r="H12" t="n">
-        <v>22.26714554319102</v>
+        <v>4.951026291270453</v>
       </c>
       <c r="I12" t="n">
-        <v>12.42018136255991</v>
+        <v>2.83707272698324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_14</t>
+          <t>model_1_8_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9686623441507366</v>
+        <v>0.9927778109538639</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9576069162671037</v>
+        <v>0.9830053214387923</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8763154031573235</v>
+        <v>0.9231624992917499</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9174197710620148</v>
+        <v>0.9569285103000963</v>
       </c>
       <c r="F13" t="n">
-        <v>3.779330625600628</v>
+        <v>0.8709981492307853</v>
       </c>
       <c r="G13" t="n">
-        <v>3.676013489703812</v>
+        <v>0.9526735559113857</v>
       </c>
       <c r="H13" t="n">
-        <v>22.17072006063908</v>
+        <v>4.838730346401027</v>
       </c>
       <c r="I13" t="n">
-        <v>12.37939842643196</v>
+        <v>2.781406235714739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_1</t>
+          <t>model_1_8_19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.968719836877975</v>
+        <v>0.9928796193748943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9520837653611094</v>
+        <v>0.9831079126045191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8916188863341202</v>
+        <v>0.9251193357064968</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9243396485102023</v>
+        <v>0.9578736594071373</v>
       </c>
       <c r="F14" t="n">
-        <v>3.772396985578326</v>
+        <v>0.8587200233430229</v>
       </c>
       <c r="G14" t="n">
-        <v>4.154940131701071</v>
+        <v>0.9469225856705474</v>
       </c>
       <c r="H14" t="n">
-        <v>19.42753901686668</v>
+        <v>4.715501406681466</v>
       </c>
       <c r="I14" t="n">
-        <v>11.34205666685019</v>
+        <v>2.720371810429702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_13</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9687338696378198</v>
+        <v>0.9929048023629121</v>
       </c>
       <c r="C15" t="n">
-        <v>0.957488479409952</v>
+        <v>0.984641808741168</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8769118386403887</v>
+        <v>0.9661156443635583</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9177190696856456</v>
+        <v>0.9773920908266507</v>
       </c>
       <c r="F15" t="n">
-        <v>3.770704630563058</v>
+        <v>0.8556829474903415</v>
       </c>
       <c r="G15" t="n">
-        <v>3.686283454665805</v>
+        <v>0.8609367118196798</v>
       </c>
       <c r="H15" t="n">
-        <v>22.0638077654396</v>
+        <v>2.133818231657955</v>
       </c>
       <c r="I15" t="n">
-        <v>12.33453130801805</v>
+        <v>1.459939741795528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_12</t>
+          <t>model_1_8_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9688069642221623</v>
+        <v>0.9929837865534251</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9573485272890426</v>
+        <v>0.9832182672592527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.877573035948773</v>
+        <v>0.9272630761351848</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9180482771623779</v>
+        <v>0.9589081203003738</v>
       </c>
       <c r="F16" t="n">
-        <v>3.761889401928866</v>
+        <v>0.8461574305984528</v>
       </c>
       <c r="G16" t="n">
-        <v>3.698419063568824</v>
+        <v>0.9407364162200518</v>
       </c>
       <c r="H16" t="n">
-        <v>21.94528677896881</v>
+        <v>4.580502457320982</v>
       </c>
       <c r="I16" t="n">
-        <v>12.28518062720933</v>
+        <v>2.653569942207871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_11</t>
+          <t>model_1_8_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9688802152305923</v>
+        <v>0.9930885060802673</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9571825100757188</v>
+        <v>0.983336176764944</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8783056222865764</v>
+        <v>0.9296075527219122</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9184096728486248</v>
+        <v>0.9600382418850384</v>
       </c>
       <c r="F17" t="n">
-        <v>3.753055308503143</v>
+        <v>0.8335282244830754</v>
       </c>
       <c r="G17" t="n">
-        <v>3.712814843775495</v>
+        <v>0.9341267432181041</v>
       </c>
       <c r="H17" t="n">
-        <v>21.81396916117081</v>
+        <v>4.432862439073919</v>
       </c>
       <c r="I17" t="n">
-        <v>12.2310046913082</v>
+        <v>2.580590640943792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9689326521730716</v>
+        <v>0.9931911680882776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.953111400346154</v>
+        <v>0.9834615521991642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8896201384135153</v>
+        <v>0.9321656412728496</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9235297898054237</v>
+        <v>0.96126979076986</v>
       </c>
       <c r="F18" t="n">
-        <v>3.746731397628054</v>
+        <v>0.8211471557514141</v>
       </c>
       <c r="G18" t="n">
-        <v>4.06583125509005</v>
+        <v>0.9270985514042782</v>
       </c>
       <c r="H18" t="n">
-        <v>19.78581871984281</v>
+        <v>4.271770516690861</v>
       </c>
       <c r="I18" t="n">
-        <v>11.46346058767363</v>
+        <v>2.501061519204635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_10</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9689518241096026</v>
+        <v>0.9931969896930963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9569851747214817</v>
+        <v>0.9845522136595691</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8791172083476587</v>
+        <v>0.9614088678938632</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9188059230133043</v>
+        <v>0.9751909434317682</v>
       </c>
       <c r="F19" t="n">
-        <v>3.744419256374347</v>
+        <v>0.8204450684770003</v>
       </c>
       <c r="G19" t="n">
-        <v>3.729926300652319</v>
+        <v>0.8659591583856167</v>
       </c>
       <c r="H19" t="n">
-        <v>21.66849067941401</v>
+        <v>2.43022066442468</v>
       </c>
       <c r="I19" t="n">
-        <v>12.17160380651785</v>
+        <v>1.602082145796641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9690193518856236</v>
+        <v>0.9932884519424908</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9567502069610699</v>
+        <v>0.9835938107097068</v>
       </c>
       <c r="D20" t="n">
-        <v>0.880016096557824</v>
+        <v>0.934951345678081</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9192397800258095</v>
+        <v>0.9626089275340313</v>
       </c>
       <c r="F20" t="n">
-        <v>3.736275386481124</v>
+        <v>0.8094146939689127</v>
       </c>
       <c r="G20" t="n">
-        <v>3.750300960404862</v>
+        <v>0.9196845138227902</v>
       </c>
       <c r="H20" t="n">
-        <v>21.50736310668373</v>
+        <v>4.09634481547139</v>
       </c>
       <c r="I20" t="n">
-        <v>12.10656537193156</v>
+        <v>2.414584748322265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9690658764211182</v>
+        <v>0.9933756765800372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9539607856808312</v>
+        <v>0.9837320396781639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8878073114637279</v>
+        <v>0.9379749485277848</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9227697735115434</v>
+        <v>0.964060000781202</v>
       </c>
       <c r="F21" t="n">
-        <v>3.730664513648702</v>
+        <v>0.7988953767113822</v>
       </c>
       <c r="G21" t="n">
-        <v>3.992178864810949</v>
+        <v>0.9119357892772911</v>
       </c>
       <c r="H21" t="n">
-        <v>20.1107717038691</v>
+        <v>3.90593780418822</v>
       </c>
       <c r="I21" t="n">
-        <v>11.57739275562136</v>
+        <v>2.320879510674811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9690794683117214</v>
+        <v>0.993378080348888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9564695247068591</v>
+        <v>0.9844372628405375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.881011160162922</v>
+        <v>0.9568941497030916</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9197137515021315</v>
+        <v>0.9730662950820839</v>
       </c>
       <c r="F22" t="n">
-        <v>3.729025327595232</v>
+        <v>0.7986054814723024</v>
       </c>
       <c r="G22" t="n">
-        <v>3.774639641669493</v>
+        <v>0.8724029757916056</v>
       </c>
       <c r="H22" t="n">
-        <v>21.32899589529022</v>
+        <v>2.714528505176578</v>
       </c>
       <c r="I22" t="n">
-        <v>12.03551347702146</v>
+        <v>1.73928450888385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_13</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9691278858924718</v>
+        <v>0.9934469481818605</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9561336630014831</v>
+        <v>0.983874798189598</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8821121916872374</v>
+        <v>0.9412473877712207</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9202304654798017</v>
+        <v>0.9656274009470578</v>
       </c>
       <c r="F23" t="n">
-        <v>3.723186152941342</v>
+        <v>0.7903000003117472</v>
       </c>
       <c r="G23" t="n">
-        <v>3.80376307527994</v>
+        <v>0.9039331513789232</v>
       </c>
       <c r="H23" t="n">
-        <v>21.13163371498103</v>
+        <v>3.699860681324865</v>
       </c>
       <c r="I23" t="n">
-        <v>11.95805415916356</v>
+        <v>2.219662287273748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9691385563711594</v>
+        <v>0.9934747406978288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9546638515092449</v>
+        <v>0.9843060128769729</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8861644916306788</v>
+        <v>0.9526052515034771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9220606055342881</v>
+        <v>0.9710377845625433</v>
       </c>
       <c r="F24" t="n">
-        <v>3.721899290034686</v>
+        <v>0.7869482146112975</v>
       </c>
       <c r="G24" t="n">
-        <v>3.931214215820495</v>
+        <v>0.879760477085427</v>
       </c>
       <c r="H24" t="n">
-        <v>20.40525056023735</v>
+        <v>2.984615658972711</v>
       </c>
       <c r="I24" t="n">
-        <v>11.68370237784707</v>
+        <v>1.870278626978532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9691590414599116</v>
+        <v>0.9934944123989866</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9557307768478034</v>
+        <v>0.9840201414283822</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8833302706858612</v>
+        <v>0.9447756116629622</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9207925007038801</v>
+        <v>0.9673132598534521</v>
       </c>
       <c r="F25" t="n">
-        <v>3.719428782232129</v>
+        <v>0.7845758015947896</v>
       </c>
       <c r="G25" t="n">
-        <v>3.838698371449302</v>
+        <v>0.895785620984536</v>
       </c>
       <c r="H25" t="n">
-        <v>20.91329053256694</v>
+        <v>3.477675890610645</v>
       </c>
       <c r="I25" t="n">
-        <v>11.87380084504669</v>
+        <v>2.110795412516202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_5</t>
+          <t>model_1_8_11</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9691656886788512</v>
+        <v>0.9935080006926251</v>
       </c>
       <c r="C26" t="n">
-        <v>0.955246773191718</v>
+        <v>0.9841651717109168</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8846768695751456</v>
+        <v>0.9485623713856401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9214019484445584</v>
+        <v>0.9691177199597444</v>
       </c>
       <c r="F26" t="n">
-        <v>3.718627125648936</v>
+        <v>0.7829370493363405</v>
       </c>
       <c r="G26" t="n">
-        <v>3.880667575200695</v>
+        <v>0.8876556340313051</v>
       </c>
       <c r="H26" t="n">
-        <v>20.67190989366438</v>
+        <v>3.239210180303076</v>
       </c>
       <c r="I26" t="n">
-        <v>11.78244003751477</v>
+        <v>1.994269686874748</v>
       </c>
     </row>
   </sheetData>
